--- a/data/trans_dic/P1435_2011_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1435_2011_2023-Habitat-trans_dic.xlsx
@@ -618,13 +618,13 @@
         <v>0.03110299022059034</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08098792889879582</v>
+        <v>0.0809879288987958</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01697942417853372</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.04867496597793236</v>
+        <v>0.04867496597793237</v>
       </c>
     </row>
     <row r="5">
@@ -638,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.007520551250719831</v>
+        <v>0.008017179867614991</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01924298341907139</v>
+        <v>0.01947276965437474</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06461392220783006</v>
+        <v>0.0645819138387317</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01095823235478374</v>
+        <v>0.01046150536697724</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.040115445843879</v>
+        <v>0.04071956809337123</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.009132808048655553</v>
+        <v>0.01040388735334598</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02459251497126702</v>
+        <v>0.02478023932594778</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04977058932550031</v>
+        <v>0.04907269718696638</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09815732827850998</v>
+        <v>0.09818201654869352</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02635447310184797</v>
+        <v>0.025288668073815</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05947664968206214</v>
+        <v>0.05979518976964569</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.02180417015433137</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.05273562103106259</v>
+        <v>0.05273562103106257</v>
       </c>
     </row>
     <row r="8">
@@ -720,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009406385466158337</v>
+        <v>0.01018997307577753</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03098629109325253</v>
+        <v>0.03188302067632866</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07425980734404457</v>
+        <v>0.07486151288509328</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01564828713303112</v>
+        <v>0.01599421628049411</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04488086889382713</v>
+        <v>0.04535489862067055</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.005869503976571103</v>
+        <v>0.006258144841002978</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02618696816304745</v>
+        <v>0.02634171272245562</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05578374980516784</v>
+        <v>0.05751509828955862</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1037337374413555</v>
+        <v>0.1026392874862735</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02975678909295545</v>
+        <v>0.02930178781944981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0617105967326327</v>
+        <v>0.06201570306053697</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001370252377644967</v>
+        <v>0.001371252233093732</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004090662575086474</v>
+        <v>0.003923993249290286</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02380138353634548</v>
+        <v>0.02343746052598377</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07038852442970821</v>
+        <v>0.07162965468063535</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01423386102847248</v>
+        <v>0.01381925250749298</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04000314355858674</v>
+        <v>0.04003118102654383</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01318641620624042</v>
+        <v>0.01298231806032606</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01829806099966213</v>
+        <v>0.01880962231803414</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05225457152735742</v>
+        <v>0.05323654681663895</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1075707812317708</v>
+        <v>0.1070174646048488</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02951749263234516</v>
+        <v>0.02923491787501043</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05926547617035035</v>
+        <v>0.05931987976303067</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>0.01888812538559522</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.06333760096179317</v>
+        <v>0.06333760096179318</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001025825379606131</v>
+        <v>0.001021359600296206</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01580701272035167</v>
+        <v>0.01657370315307147</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02230727701749464</v>
+        <v>0.02242989505861072</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08342729778434163</v>
+        <v>0.08215750859023901</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01330639555839752</v>
+        <v>0.01326821966019097</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05395879473894848</v>
+        <v>0.05406079638958326</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01009174725115062</v>
+        <v>0.01022847194179884</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03913727715259805</v>
+        <v>0.03936566745582424</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04472648227216446</v>
+        <v>0.04619936877843908</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1134303414863091</v>
+        <v>0.1135935352303785</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02594806812351889</v>
+        <v>0.02609084562520917</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07372179175804244</v>
+        <v>0.07339171847486166</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         <v>0.01972301731157295</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.05418584235746003</v>
+        <v>0.05418584235746004</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.001491578273639765</v>
+        <v>0.001716578031794266</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01307910664804666</v>
+        <v>0.01292171140740438</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03031351410243513</v>
+        <v>0.02933460762380806</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08238241973365806</v>
+        <v>0.08201249575828187</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01634237886347341</v>
+        <v>0.01672798016321282</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04950379783797668</v>
+        <v>0.04967170854434656</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.005531209871870509</v>
+        <v>0.005514111529546365</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02225775972019574</v>
+        <v>0.02221713547901617</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0431308977332567</v>
+        <v>0.0424681292849714</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0986508367853601</v>
+        <v>0.0978358412500507</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02318444070138259</v>
+        <v>0.02361650007887983</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05938354879180969</v>
+        <v>0.05916804130358666</v>
       </c>
     </row>
     <row r="19">
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5195</v>
+        <v>5538</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13413</v>
+        <v>13573</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>47344</v>
+        <v>47321</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>15347</v>
+        <v>14652</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>57102</v>
+        <v>57961</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6425</v>
+        <v>7319</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16986</v>
+        <v>17116</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>34693</v>
+        <v>34206</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>71922</v>
+        <v>71940</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>36910</v>
+        <v>35417</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>84661</v>
+        <v>85114</v>
       </c>
     </row>
     <row r="8">
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9867</v>
+        <v>10688</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31984</v>
+        <v>32909</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>79444</v>
+        <v>80087</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>32081</v>
+        <v>32790</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>95090</v>
+        <v>96095</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5975</v>
+        <v>6370</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>27468</v>
+        <v>27630</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>57579</v>
+        <v>59366</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>110975</v>
+        <v>109804</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>61005</v>
+        <v>60073</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>130748</v>
+        <v>131394</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3278</v>
+        <v>3144</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>18498</v>
+        <v>18215</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>57025</v>
+        <v>58030</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>21846</v>
+        <v>21210</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>64460</v>
+        <v>64505</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9990</v>
+        <v>9836</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14661</v>
+        <v>15071</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>40611</v>
+        <v>41374</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>87148</v>
+        <v>86700</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>45303</v>
+        <v>44870</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>95498</v>
+        <v>95586</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15633</v>
+        <v>16391</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>23465</v>
+        <v>23594</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>93115</v>
+        <v>91698</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>26608</v>
+        <v>26532</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>113588</v>
+        <v>113803</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9564</v>
+        <v>9694</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>38705</v>
+        <v>38931</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>47048</v>
+        <v>48597</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>126602</v>
+        <v>126784</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>51887</v>
+        <v>52172</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>155191</v>
+        <v>154496</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5111</v>
+        <v>5882</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>46167</v>
+        <v>45611</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>107865</v>
+        <v>104382</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>307187</v>
+        <v>305808</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>114153</v>
+        <v>116846</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>359328</v>
+        <v>360547</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18954</v>
+        <v>18896</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>78566</v>
+        <v>78422</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>153473</v>
+        <v>151115</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>367849</v>
+        <v>364810</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>161945</v>
+        <v>164963</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>431042</v>
+        <v>429477</v>
       </c>
     </row>
     <row r="24">
